--- a/teaching/traditional_assets/database/data/finland/finland_transportation.xlsx
+++ b/teaching/traditional_assets/database/data/finland/finland_transportation.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0413</v>
+        <v>0.0843</v>
       </c>
       <c r="G2">
-        <v>0.02986698911729142</v>
+        <v>-0.02191780821917808</v>
       </c>
       <c r="H2">
-        <v>0.02986698911729142</v>
+        <v>-0.02191780821917808</v>
       </c>
       <c r="I2">
-        <v>-0.07703642867962693</v>
+        <v>-0.01495705741109337</v>
       </c>
       <c r="J2">
-        <v>-0.07703642867962693</v>
+        <v>-0.01495705741109337</v>
       </c>
       <c r="K2">
-        <v>-13.6</v>
+        <v>-11.5</v>
       </c>
       <c r="L2">
-        <v>-0.1644498186215236</v>
+        <v>-0.1432129514321295</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>10.7</v>
+        <v>4.61</v>
       </c>
       <c r="V2">
-        <v>0.8106060606060606</v>
+        <v>0.1141089108910891</v>
       </c>
       <c r="W2">
-        <v>-0.9510489510489509</v>
+        <v>-1.433915211970075</v>
       </c>
       <c r="X2">
-        <v>0.3319045516571938</v>
+        <v>0.08701611357385332</v>
       </c>
       <c r="Y2">
-        <v>-1.282953502706145</v>
+        <v>-1.520931325543928</v>
       </c>
       <c r="Z2">
-        <v>1.267538563660468</v>
+        <v>1.751162299335239</v>
       </c>
       <c r="AA2">
-        <v>-0.09764664415810637</v>
+        <v>-0.02619223504729944</v>
       </c>
       <c r="AB2">
-        <v>0.06530986058978251</v>
+        <v>0.0519424394367137</v>
       </c>
       <c r="AC2">
-        <v>-0.1629565047478889</v>
+        <v>-0.07813467448401315</v>
       </c>
       <c r="AD2">
-        <v>54.2</v>
+        <v>48.6</v>
       </c>
       <c r="AE2">
-        <v>45.50456325902574</v>
+        <v>1.125258550553988</v>
       </c>
       <c r="AF2">
-        <v>99.70456325902575</v>
+        <v>49.72525855055399</v>
       </c>
       <c r="AG2">
-        <v>89.00456325902574</v>
+        <v>45.11525855055399</v>
       </c>
       <c r="AH2">
-        <v>0.8830870992369321</v>
+        <v>0.5517349891724481</v>
       </c>
       <c r="AI2">
-        <v>0.9063675206296053</v>
+        <v>1.053607079984316</v>
       </c>
       <c r="AJ2">
-        <v>0.8708472539866335</v>
+        <v>0.52756969124853</v>
       </c>
       <c r="AK2">
-        <v>0.8962786838593357</v>
+        <v>1.05941022988029</v>
       </c>
       <c r="AL2">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="AM2">
-        <v>1.7</v>
+        <v>2.241</v>
       </c>
       <c r="AN2">
-        <v>11.15915173975705</v>
+        <v>307.5949367088609</v>
       </c>
       <c r="AO2">
-        <v>-1.435294117647059</v>
+        <v>-0.7466666666666666</v>
       </c>
       <c r="AP2">
-        <v>18.32500787708992</v>
+        <v>285.5396110794558</v>
       </c>
       <c r="AQ2">
-        <v>-1.435294117647059</v>
+        <v>-0.7496653279785809</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0413</v>
+        <v>0.0843</v>
       </c>
       <c r="G3">
-        <v>0.02986698911729142</v>
+        <v>-0.02191780821917808</v>
       </c>
       <c r="H3">
-        <v>0.02986698911729142</v>
+        <v>-0.02191780821917808</v>
       </c>
       <c r="I3">
-        <v>-0.07703642867962693</v>
+        <v>-0.01495705741109337</v>
       </c>
       <c r="J3">
-        <v>-0.07703642867962693</v>
+        <v>-0.01495705741109337</v>
       </c>
       <c r="K3">
-        <v>-13.6</v>
+        <v>-11.5</v>
       </c>
       <c r="L3">
-        <v>-0.1644498186215236</v>
+        <v>-0.1432129514321295</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>10.7</v>
+        <v>4.61</v>
       </c>
       <c r="V3">
-        <v>0.8106060606060606</v>
+        <v>0.1141089108910891</v>
       </c>
       <c r="W3">
-        <v>-0.9510489510489509</v>
+        <v>-1.433915211970075</v>
       </c>
       <c r="X3">
-        <v>0.3319045516571938</v>
+        <v>0.08701611357385332</v>
       </c>
       <c r="Y3">
-        <v>-1.282953502706145</v>
+        <v>-1.520931325543928</v>
       </c>
       <c r="Z3">
-        <v>1.267538563660468</v>
+        <v>1.751162299335239</v>
       </c>
       <c r="AA3">
-        <v>-0.09764664415810637</v>
+        <v>-0.02619223504729944</v>
       </c>
       <c r="AB3">
-        <v>0.06530986058978251</v>
+        <v>0.0519424394367137</v>
       </c>
       <c r="AC3">
-        <v>-0.1629565047478889</v>
+        <v>-0.07813467448401315</v>
       </c>
       <c r="AD3">
-        <v>54.2</v>
+        <v>48.6</v>
       </c>
       <c r="AE3">
-        <v>45.50456325902574</v>
+        <v>1.125258550553988</v>
       </c>
       <c r="AF3">
-        <v>99.70456325902575</v>
+        <v>49.72525855055399</v>
       </c>
       <c r="AG3">
-        <v>89.00456325902574</v>
+        <v>45.11525855055399</v>
       </c>
       <c r="AH3">
-        <v>0.8830870992369321</v>
+        <v>0.5517349891724481</v>
       </c>
       <c r="AI3">
-        <v>0.9063675206296053</v>
+        <v>1.053607079984316</v>
       </c>
       <c r="AJ3">
-        <v>0.8708472539866335</v>
+        <v>0.52756969124853</v>
       </c>
       <c r="AK3">
-        <v>0.8962786838593357</v>
+        <v>1.05941022988029</v>
       </c>
       <c r="AL3">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="AM3">
-        <v>1.7</v>
+        <v>2.241</v>
       </c>
       <c r="AN3">
-        <v>11.15915173975705</v>
+        <v>307.5949367088609</v>
       </c>
       <c r="AO3">
-        <v>-1.435294117647059</v>
+        <v>-0.7466666666666666</v>
       </c>
       <c r="AP3">
-        <v>18.32500787708992</v>
+        <v>285.5396110794558</v>
       </c>
       <c r="AQ3">
-        <v>-1.435294117647059</v>
+        <v>-0.7496653279785809</v>
       </c>
     </row>
   </sheetData>
